--- a/ACCIDENT/accident.xlsx
+++ b/ACCIDENT/accident.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{A2CD65F7-4EDF-4855-AE0E-EFD8C395BA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87C10FA0-0344-40DD-9683-D13A76BA73D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12075" yWindow="1380" windowWidth="15165" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,12 +419,6 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -451,6 +445,12 @@
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -790,28 +790,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="52.5" customHeight="1">
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="45" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -868,159 +868,159 @@
       </c>
     </row>
     <row r="3" spans="1:21" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A3" s="27">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="28">
         <v>35339</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="29">
         <v>1710960329</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="31">
         <v>95945909</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29">
+      <c r="N3" s="31"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27">
         <f>N8*49.58%</f>
         <v>11749658.19224</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="35"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="33"/>
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>36421</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <v>6809990054</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <v>77828050</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29">
+      <c r="N4" s="31"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27">
         <f>N8*33.42%</f>
         <v>7919999.5317600006</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="35"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="33"/>
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <v>27803</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <v>6302760356</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="31">
         <v>95945909</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29">
+      <c r="N5" s="31"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27">
         <f>N8*17%</f>
         <v>4028725.0760000004</v>
       </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="35"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="33"/>
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" ht="48" customHeight="1">

--- a/ACCIDENT/accident.xlsx
+++ b/ACCIDENT/accident.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{A2CD65F7-4EDF-4855-AE0E-EFD8C395BA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87C10FA0-0344-40DD-9683-D13A76BA73D7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12075" yWindow="1380" windowWidth="15165" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="A6:XFD8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/ACCIDENT/accident.xlsx
+++ b/ACCIDENT/accident.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{A2CD65F7-4EDF-4855-AE0E-EFD8C395BA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87C10FA0-0344-40DD-9683-D13A76BA73D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="15165" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
